--- a/doc/Mecenat-Ladok-2018.xlsx
+++ b/doc/Mecenat-Ladok-2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjo/Projects/Integral/integral-mecenat-integration/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F2D056-5B8B-414F-B740-02CA88BB76ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607C2A9A-4EBC-DE4E-B7F6-3588CD89F6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="460" windowWidth="28800" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Personnummer</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>20181</t>
+  </si>
+  <si>
+    <t>Student_UID</t>
   </si>
 </sst>
 </file>
@@ -465,9 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -477,7 +482,7 @@
     <col min="22" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -547,8 +552,11 @@
       <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="X1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P2" s="1">
         <v>100</v>
       </c>
